--- a/I2C-master/registers/registers.xlsx
+++ b/I2C-master/registers/registers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-45" yWindow="-90" windowWidth="10005" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>ST_RW</t>
   </si>
   <si>
-    <t>ST_RESTART_DETC</t>
-  </si>
-  <si>
     <t>ST_STOP_DETC</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>flip_flop</t>
+  </si>
+  <si>
+    <t>ST_ERROR_DETC</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,6 +416,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,28 +426,22 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -751,7 +748,7 @@
   <dimension ref="B3:O35"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,9 +784,12 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H6" s="7"/>
+    </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
@@ -939,22 +939,22 @@
         <v>27</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="L12" s="1"/>
     </row>
@@ -985,7 +985,7 @@
         <v>21</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -995,35 +995,35 @@
         <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L14" s="1"/>
       <c r="N14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
@@ -1048,7 +1048,7 @@
         <v>22</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -1057,7 +1057,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
@@ -1071,7 +1071,7 @@
         <v>23</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
         <v>19</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
@@ -1177,7 +1177,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1338,7 +1338,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1381,7 +1381,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -1436,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1467,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1475,35 +1475,38 @@
         <v>22</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F5" s="7"/>
       <c r="H5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="H6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
       <c r="D8" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
@@ -1550,13 +1553,13 @@
       <c r="E10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="25" t="s">
+      <c r="F10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="26" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="25" t="s">
@@ -1571,7 +1574,7 @@
       <c r="L10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="26" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1580,13 +1583,13 @@
       <c r="E11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="26" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="25" t="s">
@@ -1601,7 +1604,7 @@
       <c r="L11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="26" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1610,13 +1613,13 @@
       <c r="E12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="26" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="25" t="s">
@@ -1631,7 +1634,7 @@
       <c r="L12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1642,37 +1645,37 @@
       <c r="E13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>32</v>
-      </c>
       <c r="P13" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="34"/>
       <c r="R13" s="1"/>
       <c r="S13" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T13" s="34"/>
     </row>
@@ -1681,16 +1684,16 @@
       <c r="E14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="26" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="26" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="24" t="s">
@@ -1702,8 +1705,8 @@
       <c r="L14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="28" t="s">
-        <v>21</v>
+      <c r="M14" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="P14" s="20">
         <v>1</v>
@@ -1716,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1724,17 +1727,17 @@
       <c r="E15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>33</v>
+      <c r="F15" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>34</v>
+      <c r="H15" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="J15" s="24" t="s">
         <v>23</v>
@@ -1745,10 +1748,9 @@
       <c r="L15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="14"/>
+      <c r="M15" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="P15" s="20">
         <v>2</v>
       </c>
@@ -1760,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1771,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="32"/>
@@ -1791,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
@@ -1800,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
@@ -1820,7 +1822,7 @@
         <v>4</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
@@ -1849,7 +1851,7 @@
         <v>5</v>
       </c>
       <c r="T18" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
@@ -1860,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
@@ -1880,7 +1882,7 @@
         <v>6</v>
       </c>
       <c r="T19" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
@@ -1902,14 +1904,14 @@
         <v>7</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="20">
         <v>7</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="4:20" x14ac:dyDescent="0.25">
@@ -1918,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
@@ -1931,14 +1933,14 @@
         <v>8</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="20">
         <v>8</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="4:20" x14ac:dyDescent="0.25">
@@ -1960,14 +1962,14 @@
         <v>9</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="20">
         <v>9</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="4:20" x14ac:dyDescent="0.25">
@@ -1987,14 +1989,14 @@
         <v>10</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="20">
         <v>10</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="4:20" x14ac:dyDescent="0.25">
@@ -2014,7 +2016,7 @@
         <v>11</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="4:20" x14ac:dyDescent="0.25">
@@ -2176,7 +2178,7 @@
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>1</v>
@@ -2264,7 +2266,7 @@
     </row>
     <row r="40" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D40" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>1</v>
@@ -2355,10 +2357,10 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -2366,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -2374,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -2382,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -2390,7 +2392,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -2398,7 +2400,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -2406,7 +2408,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -2414,7 +2416,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -2422,7 +2424,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">

--- a/I2C-master/registers/registers.xlsx
+++ b/I2C-master/registers/registers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="74">
   <si>
     <t>CTL</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>ST_ERROR_DETC</t>
+  </si>
+  <si>
+    <t>BAUDRATE</t>
   </si>
 </sst>
 </file>
@@ -265,15 +268,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -388,15 +390,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -435,13 +434,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -788,18 +790,18 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
@@ -831,7 +833,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -864,7 +866,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="6" t="s">
         <v>3</v>
       </c>
@@ -895,7 +897,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
@@ -926,7 +928,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -959,7 +961,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
@@ -990,7 +992,7 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
@@ -1027,22 +1029,22 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="1"/>
       <c r="N15" s="4" t="s">
         <v>22</v>
@@ -1052,20 +1054,20 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
       <c r="L16" s="1"/>
       <c r="N16" s="5" t="s">
         <v>23</v>
@@ -1075,20 +1077,20 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="D17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="2"/>
       <c r="N17" s="5" t="s">
         <v>19</v>
@@ -1098,60 +1100,60 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="D19" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1168,7 +1170,7 @@
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="6" t="s">
         <v>3</v>
       </c>
@@ -1176,7 +1178,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="16" t="s">
         <v>57</v>
       </c>
       <c r="I22" s="8"/>
@@ -1185,7 +1187,7 @@
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
@@ -1199,7 +1201,7 @@
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1208,57 +1210,57 @@
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
+      <c r="E26" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1267,57 +1269,57 @@
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="29"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
+      <c r="E29" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="8"/>
@@ -1332,12 +1334,12 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="30"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H31" s="8"/>
@@ -1347,7 +1349,7 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="30"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1360,7 +1362,7 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="8"/>
@@ -1375,12 +1377,12 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="30"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H34" s="8"/>
@@ -1390,7 +1392,7 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="30"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1404,6 +1406,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -1420,12 +1428,6 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1436,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D30"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,7 +1488,7 @@
       <c r="I5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1501,22 +1503,22 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N7" s="14"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D9" s="10"/>
@@ -1547,22 +1549,22 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="24" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="10" t="s">
@@ -1574,25 +1576,25 @@
       <c r="L10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D11" s="29"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="24" t="s">
         <v>24</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -1604,25 +1606,25 @@
       <c r="L11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D12" s="29"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="25" t="s">
+      <c r="G12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="10" t="s">
@@ -1634,393 +1636,399 @@
       <c r="L12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="34" t="s">
+      <c r="P13" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" s="34"/>
+      <c r="Q13" s="32"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="34" t="s">
+      <c r="S13" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="34"/>
+      <c r="T13" s="32"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D14" s="29"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="20">
+      <c r="M14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="19">
         <v>1</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="Q14" s="20" t="s">
         <v>13</v>
       </c>
       <c r="R14" s="1"/>
-      <c r="S14" s="20">
+      <c r="S14" s="19">
         <v>1</v>
       </c>
-      <c r="T14" s="22" t="s">
+      <c r="T14" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D15" s="29"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15" s="19">
         <v>2</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="Q15" s="20" t="s">
         <v>14</v>
       </c>
       <c r="R15" s="1"/>
-      <c r="S15" s="20">
+      <c r="S15" s="19">
         <v>2</v>
       </c>
-      <c r="T15" s="21" t="s">
+      <c r="T15" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="P16" s="20">
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="P16" s="19">
         <v>3</v>
       </c>
-      <c r="Q16" s="21" t="s">
+      <c r="Q16" s="20" t="s">
         <v>15</v>
       </c>
       <c r="R16" s="1"/>
-      <c r="S16" s="20">
+      <c r="S16" s="19">
         <v>3</v>
       </c>
-      <c r="T16" s="21" t="s">
+      <c r="T16" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D17" s="29"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="P17" s="20">
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="P17" s="19">
         <v>4</v>
       </c>
-      <c r="Q17" s="21" t="s">
+      <c r="Q17" s="20" t="s">
         <v>16</v>
       </c>
       <c r="R17" s="1"/>
-      <c r="S17" s="20">
+      <c r="S17" s="19">
         <v>4</v>
       </c>
-      <c r="T17" s="21" t="s">
+      <c r="T17" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D18" s="29"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="P18" s="20">
+      <c r="F18" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="P18" s="19">
         <v>5</v>
       </c>
-      <c r="Q18" s="21" t="s">
+      <c r="Q18" s="20" t="s">
         <v>17</v>
       </c>
       <c r="R18" s="1"/>
-      <c r="S18" s="20">
+      <c r="S18" s="19">
         <v>5</v>
       </c>
-      <c r="T18" s="21" t="s">
+      <c r="T18" s="20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="P19" s="20">
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="P19" s="19">
         <v>6</v>
       </c>
-      <c r="Q19" s="21" t="s">
+      <c r="Q19" s="20" t="s">
         <v>18</v>
       </c>
       <c r="R19" s="1"/>
-      <c r="S19" s="20">
+      <c r="S19" s="19">
         <v>6</v>
       </c>
-      <c r="T19" s="22" t="s">
+      <c r="T19" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D20" s="29"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="P20" s="20">
+      <c r="F20" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="P20" s="19">
         <v>7</v>
       </c>
-      <c r="Q20" s="21" t="s">
+      <c r="Q20" s="20" t="s">
         <v>30</v>
       </c>
       <c r="R20" s="1"/>
-      <c r="S20" s="20">
+      <c r="S20" s="19">
         <v>7</v>
       </c>
-      <c r="T20" s="21" t="s">
+      <c r="T20" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D21" s="29"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="P21" s="20">
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="P21" s="19">
         <v>8</v>
       </c>
-      <c r="Q21" s="21" t="s">
+      <c r="Q21" s="20" t="s">
         <v>34</v>
       </c>
       <c r="R21" s="1"/>
-      <c r="S21" s="20">
+      <c r="S21" s="19">
         <v>8</v>
       </c>
-      <c r="T21" s="21" t="s">
+      <c r="T21" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="P22" s="20">
+      <c r="F22" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="P22" s="19">
         <v>9</v>
       </c>
-      <c r="Q22" s="21" t="s">
+      <c r="Q22" s="20" t="s">
         <v>35</v>
       </c>
       <c r="R22" s="1"/>
-      <c r="S22" s="20">
+      <c r="S22" s="19">
         <v>9</v>
       </c>
-      <c r="T22" s="21" t="s">
+      <c r="T22" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D23" s="29"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="P23" s="20">
+      <c r="F23" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="P23" s="19">
         <v>10</v>
       </c>
-      <c r="Q23" s="21" t="s">
+      <c r="Q23" s="20" t="s">
         <v>61</v>
       </c>
       <c r="R23" s="1"/>
-      <c r="S23" s="20">
+      <c r="S23" s="19">
         <v>10</v>
       </c>
-      <c r="T23" s="21" t="s">
+      <c r="T23" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D24" s="29"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="S24" s="23">
+      <c r="F24" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="S24" s="22">
         <v>11</v>
       </c>
-      <c r="T24" s="21" t="s">
+      <c r="T24" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -2029,287 +2037,300 @@
       <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
     </row>
     <row r="26" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D26" s="29"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
     </row>
     <row r="27" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D27" s="29"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
+      <c r="G27" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
     </row>
     <row r="28" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
     </row>
     <row r="29" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D29" s="33"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
     </row>
     <row r="30" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D30" s="33"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
+      <c r="G30" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="13"/>
     </row>
     <row r="32" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D32" s="33"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D33" s="33"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="31" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D35" s="33"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
     </row>
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D36" s="33"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
     </row>
     <row r="37" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D38" s="33"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D39" s="33"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
     </row>
     <row r="40" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="31" t="s">
         <v>60</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
     </row>
     <row r="41" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D41" s="33"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
     </row>
     <row r="42" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D42" s="33"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="29">
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F24:M24"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="S13:T13"/>
@@ -2326,16 +2347,6 @@
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/I2C-master/registers/registers.xlsx
+++ b/I2C-master/registers/registers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="80">
   <si>
     <t>CTL</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>ST_ERROR_DETC_W</t>
+  </si>
+  <si>
+    <t>Avalon Slave Address(word address)</t>
+  </si>
+  <si>
+    <t>word address = byte address</t>
   </si>
 </sst>
 </file>
@@ -370,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -446,16 +452,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1418,6 +1427,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -1434,12 +1449,6 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1450,12 +1459,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L13" sqref="J13:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1505,6 +1515,9 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="H6" s="5" t="s">
@@ -1518,7 +1531,9 @@
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
+      <c r="B8" s="35" t="s">
+        <v>78</v>
+      </c>
       <c r="D8" s="30" t="s">
         <v>42</v>
       </c>
@@ -1533,6 +1548,7 @@
       <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="35"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10">
@@ -1561,6 +1577,9 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="35">
+        <v>0</v>
+      </c>
       <c r="D10" s="28" t="s">
         <v>0</v>
       </c>
@@ -1593,6 +1612,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="35"/>
       <c r="D11" s="28"/>
       <c r="E11" s="10" t="s">
         <v>3</v>
@@ -1623,6 +1643,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="35"/>
       <c r="D12" s="28"/>
       <c r="E12" s="10" t="s">
         <v>2</v>
@@ -1653,6 +1674,9 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="35">
+        <v>1</v>
+      </c>
       <c r="D13" s="28" t="s">
         <v>4</v>
       </c>
@@ -1683,17 +1707,18 @@
       <c r="M13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="34" t="s">
+      <c r="P13" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" s="34"/>
+      <c r="Q13" s="32"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="34" t="s">
+      <c r="S13" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="34"/>
+      <c r="T13" s="32"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="35"/>
       <c r="D14" s="28"/>
       <c r="E14" s="10" t="s">
         <v>3</v>
@@ -1737,6 +1762,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
       <c r="D15" s="28"/>
       <c r="E15" s="10" t="s">
         <v>2</v>
@@ -1780,22 +1806,25 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="35">
+        <v>2</v>
+      </c>
       <c r="D16" s="28" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
       <c r="P16" s="19">
         <v>3</v>
       </c>
@@ -1810,21 +1839,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="35"/>
       <c r="D17" s="28"/>
       <c r="E17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
       <c r="P17" s="19">
         <v>4</v>
       </c>
@@ -1839,21 +1869,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="35"/>
       <c r="D18" s="28"/>
       <c r="E18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
       <c r="P18" s="19">
         <v>5</v>
       </c>
@@ -1868,23 +1899,26 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="35">
+        <v>3</v>
+      </c>
       <c r="D19" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
       <c r="N19" s="7"/>
       <c r="P19" s="19">
         <v>6</v>
@@ -1900,21 +1934,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="35"/>
       <c r="D20" s="28"/>
       <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
       <c r="P20" s="19">
         <v>7</v>
       </c>
@@ -1929,21 +1964,22 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="35"/>
       <c r="D21" s="28"/>
       <c r="E21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
       <c r="P21" s="19">
         <v>8</v>
       </c>
@@ -1958,23 +1994,26 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="35">
+        <v>4</v>
+      </c>
       <c r="D22" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
       <c r="P22" s="19">
         <v>9</v>
       </c>
@@ -1989,21 +2028,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="35"/>
       <c r="D23" s="28"/>
       <c r="E23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
       <c r="P23" s="19">
         <v>10</v>
       </c>
@@ -2018,21 +2058,22 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="35"/>
       <c r="D24" s="28"/>
       <c r="E24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
       <c r="S24" s="22">
         <v>11</v>
       </c>
@@ -2040,7 +2081,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="35">
+        <v>5</v>
+      </c>
       <c r="D25" s="28" t="s">
         <v>8</v>
       </c>
@@ -2060,7 +2104,8 @@
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
     </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="35"/>
       <c r="D26" s="28"/>
       <c r="E26" s="10" t="s">
         <v>3</v>
@@ -2079,7 +2124,8 @@
       <c r="M26" s="28"/>
       <c r="U26" s="7"/>
     </row>
-    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="35"/>
       <c r="D27" s="28"/>
       <c r="E27" s="10" t="s">
         <v>2</v>
@@ -2097,8 +2143,11 @@
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
     </row>
-    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D28" s="33" t="s">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="35">
+        <v>6</v>
+      </c>
+      <c r="D28" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -2107,15 +2156,15 @@
       <c r="F28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="20" t="s">
         <v>74</v>
@@ -2126,23 +2175,24 @@
       </c>
       <c r="U28" s="7"/>
     </row>
-    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D29" s="33"/>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="35"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
       <c r="P29" s="20">
         <v>1</v>
       </c>
@@ -2156,23 +2206,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D30" s="33"/>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="35"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
       <c r="P30" s="20">
         <v>2</v>
       </c>
@@ -2186,8 +2237,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D31" s="33" t="s">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="35">
+        <v>7</v>
+      </c>
+      <c r="D31" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -2215,8 +2269,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D32" s="33"/>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="35"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="12" t="s">
         <v>3</v>
       </c>
@@ -2241,8 +2296,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D33" s="33"/>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="35"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="12" t="s">
         <v>2</v>
       </c>
@@ -2267,8 +2323,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D34" s="33" t="s">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="35">
+        <v>8</v>
+      </c>
+      <c r="D34" s="31" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -2290,8 +2349,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D35" s="33"/>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="35"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="12" t="s">
         <v>3</v>
       </c>
@@ -2310,8 +2370,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D36" s="33"/>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="35"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="12" t="s">
         <v>2</v>
       </c>
@@ -2331,8 +2392,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D37" s="33" t="s">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="35">
+        <v>9</v>
+      </c>
+      <c r="D37" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="12" t="s">
@@ -2353,8 +2417,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D38" s="33"/>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="35"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="12" t="s">
         <v>3</v>
       </c>
@@ -2367,8 +2432,9 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="39" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D39" s="33"/>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="35"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="12" t="s">
         <v>2</v>
       </c>
@@ -2381,8 +2447,11 @@
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
     </row>
-    <row r="40" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D40" s="33" t="s">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="35">
+        <v>10</v>
+      </c>
+      <c r="D40" s="31" t="s">
         <v>60</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -2397,8 +2466,9 @@
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
     </row>
-    <row r="41" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D41" s="33"/>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="35"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="12" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2481,9 @@
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
     </row>
-    <row r="42" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D42" s="33"/>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="35"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="12" t="s">
         <v>2</v>
       </c>
@@ -2426,7 +2497,32 @@
       <c r="M42" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="41">
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F24:M24"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="S13:T13"/>
@@ -2443,19 +2539,6 @@
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F24:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/I2C-master/registers/registers.xlsx
+++ b/I2C-master/registers/registers.xlsx
@@ -452,10 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -464,7 +461,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1427,12 +1427,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -1449,6 +1443,12 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1459,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L13" sqref="J13:L15"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1531,7 @@
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="31" t="s">
         <v>78</v>
       </c>
       <c r="D8" s="30" t="s">
@@ -1548,7 +1548,7 @@
       <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
+      <c r="B9" s="31"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10">
@@ -1577,7 +1577,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="35">
+      <c r="B10" s="31">
         <v>0</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -1612,7 +1612,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
+      <c r="B11" s="31"/>
       <c r="D11" s="28"/>
       <c r="E11" s="10" t="s">
         <v>3</v>
@@ -1643,7 +1643,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="35"/>
+      <c r="B12" s="31"/>
       <c r="D12" s="28"/>
       <c r="E12" s="10" t="s">
         <v>2</v>
@@ -1674,7 +1674,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="35">
+      <c r="B13" s="31">
         <v>1</v>
       </c>
       <c r="D13" s="28" t="s">
@@ -1707,18 +1707,18 @@
       <c r="M13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" s="32"/>
+      <c r="Q13" s="35"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="32" t="s">
+      <c r="S13" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="32"/>
+      <c r="T13" s="35"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="35"/>
+      <c r="B14" s="31"/>
       <c r="D14" s="28"/>
       <c r="E14" s="10" t="s">
         <v>3</v>
@@ -1762,7 +1762,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="35"/>
+      <c r="B15" s="31"/>
       <c r="D15" s="28"/>
       <c r="E15" s="10" t="s">
         <v>2</v>
@@ -1806,7 +1806,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="35">
+      <c r="B16" s="31">
         <v>2</v>
       </c>
       <c r="D16" s="28" t="s">
@@ -1815,16 +1815,16 @@
       <c r="E16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
       <c r="P16" s="19">
         <v>3</v>
       </c>
@@ -1840,21 +1840,21 @@
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="35"/>
+      <c r="B17" s="31"/>
       <c r="D17" s="28"/>
       <c r="E17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
       <c r="P17" s="19">
         <v>4</v>
       </c>
@@ -1870,21 +1870,21 @@
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="35"/>
+      <c r="B18" s="31"/>
       <c r="D18" s="28"/>
       <c r="E18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
       <c r="P18" s="19">
         <v>5</v>
       </c>
@@ -1900,7 +1900,7 @@
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="35">
+      <c r="B19" s="31">
         <v>3</v>
       </c>
       <c r="D19" s="28" t="s">
@@ -1909,16 +1909,16 @@
       <c r="E19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
       <c r="N19" s="7"/>
       <c r="P19" s="19">
         <v>6</v>
@@ -1935,21 +1935,21 @@
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="35"/>
+      <c r="B20" s="31"/>
       <c r="D20" s="28"/>
       <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
       <c r="P20" s="19">
         <v>7</v>
       </c>
@@ -1965,21 +1965,21 @@
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="35"/>
+      <c r="B21" s="31"/>
       <c r="D21" s="28"/>
       <c r="E21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
       <c r="P21" s="19">
         <v>8</v>
       </c>
@@ -1995,7 +1995,7 @@
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="35">
+      <c r="B22" s="31">
         <v>4</v>
       </c>
       <c r="D22" s="28" t="s">
@@ -2004,16 +2004,16 @@
       <c r="E22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
       <c r="P22" s="19">
         <v>9</v>
       </c>
@@ -2029,21 +2029,21 @@
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="35"/>
+      <c r="B23" s="31"/>
       <c r="D23" s="28"/>
       <c r="E23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
       <c r="P23" s="19">
         <v>10</v>
       </c>
@@ -2059,21 +2059,21 @@
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
+      <c r="B24" s="31"/>
       <c r="D24" s="28"/>
       <c r="E24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
       <c r="S24" s="22">
         <v>11</v>
       </c>
@@ -2082,7 +2082,7 @@
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="35">
+      <c r="B25" s="31">
         <v>5</v>
       </c>
       <c r="D25" s="28" t="s">
@@ -2105,7 +2105,7 @@
       <c r="M25" s="28"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="35"/>
+      <c r="B26" s="31"/>
       <c r="D26" s="28"/>
       <c r="E26" s="10" t="s">
         <v>3</v>
@@ -2125,7 +2125,7 @@
       <c r="U26" s="7"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="35"/>
+      <c r="B27" s="31"/>
       <c r="D27" s="28"/>
       <c r="E27" s="10" t="s">
         <v>2</v>
@@ -2144,10 +2144,10 @@
       <c r="M27" s="28"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="35">
+      <c r="B28" s="31">
         <v>6</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="34" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -2156,15 +2156,15 @@
       <c r="F28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="20" t="s">
         <v>74</v>
@@ -2176,23 +2176,23 @@
       <c r="U28" s="7"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="35"/>
-      <c r="D29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
       <c r="P29" s="20">
         <v>1</v>
       </c>
@@ -2207,23 +2207,23 @@
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="35"/>
-      <c r="D30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
       <c r="P30" s="20">
         <v>2</v>
       </c>
@@ -2238,10 +2238,10 @@
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="35">
+      <c r="B31" s="31">
         <v>7</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="34" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -2270,8 +2270,8 @@
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="35"/>
-      <c r="D32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="12" t="s">
         <v>3</v>
       </c>
@@ -2297,8 +2297,8 @@
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="35"/>
-      <c r="D33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="12" t="s">
         <v>2</v>
       </c>
@@ -2324,10 +2324,10 @@
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="35">
+      <c r="B34" s="31">
         <v>8</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="34" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -2350,8 +2350,8 @@
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="35"/>
-      <c r="D35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="12" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2371,8 @@
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="35"/>
-      <c r="D36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="12" t="s">
         <v>2</v>
       </c>
@@ -2393,10 +2393,10 @@
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="35">
+      <c r="B37" s="31">
         <v>9</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="34" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="12" t="s">
@@ -2418,8 +2418,8 @@
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="35"/>
-      <c r="D38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="D38" s="34"/>
       <c r="E38" s="12" t="s">
         <v>3</v>
       </c>
@@ -2433,8 +2433,8 @@
       <c r="M38" s="18"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="35"/>
-      <c r="D39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="12" t="s">
         <v>2</v>
       </c>
@@ -2448,10 +2448,10 @@
       <c r="M39" s="18"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="35">
+      <c r="B40" s="31">
         <v>10</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="34" t="s">
         <v>60</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -2467,8 +2467,8 @@
       <c r="M40" s="15"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="35"/>
-      <c r="D41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="12" t="s">
         <v>3</v>
       </c>
@@ -2482,8 +2482,8 @@
       <c r="M41" s="15"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="35"/>
-      <c r="D42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="D42" s="34"/>
       <c r="E42" s="12" t="s">
         <v>2</v>
       </c>
@@ -2498,31 +2498,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F24:M24"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="S13:T13"/>
@@ -2539,6 +2514,31 @@
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="F20:M20"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/I2C-master/registers/registers.xlsx
+++ b/I2C-master/registers/registers.xlsx
@@ -376,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,9 +409,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,7 +416,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -443,6 +439,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -452,21 +451,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,18 +814,18 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
@@ -854,7 +857,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -887,7 +890,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="6" t="s">
         <v>3</v>
       </c>
@@ -918,7 +921,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
@@ -949,7 +952,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -982,7 +985,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
@@ -1013,7 +1016,7 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
@@ -1050,22 +1053,22 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="1"/>
       <c r="N15" s="4" t="s">
         <v>22</v>
@@ -1075,20 +1078,20 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
       <c r="L16" s="1"/>
       <c r="N16" s="5" t="s">
         <v>23</v>
@@ -1098,20 +1101,20 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
       <c r="L17" s="2"/>
       <c r="N17" s="5" t="s">
         <v>19</v>
@@ -1121,60 +1124,60 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1191,7 +1194,7 @@
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="6" t="s">
         <v>3</v>
       </c>
@@ -1199,7 +1202,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I22" s="8"/>
@@ -1208,7 +1211,7 @@
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
@@ -1222,7 +1225,7 @@
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1231,57 +1234,57 @@
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1290,57 +1293,57 @@
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="28"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="8"/>
@@ -1355,12 +1358,12 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="29"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>57</v>
       </c>
       <c r="H31" s="8"/>
@@ -1370,7 +1373,7 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="29"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1383,7 +1386,7 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="8"/>
@@ -1398,12 +1401,12 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>57</v>
       </c>
       <c r="H34" s="8"/>
@@ -1413,7 +1416,7 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="29"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1427,6 +1430,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -1443,12 +1452,6 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1460,7 +1463,7 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H10" sqref="H10:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,7 +1513,7 @@
       <c r="I5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1531,24 +1534,24 @@
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
+      <c r="B9" s="34"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10">
@@ -1577,25 +1580,25 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="31">
+      <c r="B10" s="34">
         <v>0</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="10" t="s">
@@ -1607,26 +1610,26 @@
       <c r="L10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="D11" s="28"/>
+      <c r="B11" s="34"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="22" t="s">
         <v>24</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -1638,26 +1641,26 @@
       <c r="L11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="34"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="22" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="10" t="s">
@@ -1669,147 +1672,147 @@
       <c r="L12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="31">
+      <c r="B13" s="34">
         <v>1</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="23" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="35" t="s">
+      <c r="P13" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" s="35"/>
+      <c r="Q13" s="31"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="35" t="s">
+      <c r="S13" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="35"/>
+      <c r="T13" s="31"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="34"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="M14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="17">
         <v>1</v>
       </c>
-      <c r="Q14" s="20" t="s">
+      <c r="Q14" s="18" t="s">
         <v>13</v>
       </c>
       <c r="R14" s="1"/>
-      <c r="S14" s="19">
+      <c r="S14" s="17">
         <v>1</v>
       </c>
-      <c r="T14" s="21" t="s">
+      <c r="T14" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="34"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="23" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="K15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="M15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="17">
         <v>2</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="Q15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="R15" s="1"/>
-      <c r="S15" s="19">
+      <c r="S15" s="17">
         <v>2</v>
       </c>
-      <c r="T15" s="20" t="s">
+      <c r="T15" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="31">
+      <c r="B16" s="34">
         <v>2</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -1825,23 +1828,23 @@
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
-      <c r="P16" s="19">
+      <c r="P16" s="17">
         <v>3</v>
       </c>
-      <c r="Q16" s="20" t="s">
+      <c r="Q16" s="18" t="s">
         <v>15</v>
       </c>
       <c r="R16" s="1"/>
-      <c r="S16" s="19">
+      <c r="S16" s="17">
         <v>3</v>
       </c>
-      <c r="T16" s="20" t="s">
+      <c r="T16" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="34"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="10" t="s">
         <v>3</v>
       </c>
@@ -1855,23 +1858,23 @@
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
-      <c r="P17" s="19">
+      <c r="P17" s="17">
         <v>4</v>
       </c>
-      <c r="Q17" s="20" t="s">
+      <c r="Q17" s="18" t="s">
         <v>16</v>
       </c>
       <c r="R17" s="1"/>
-      <c r="S17" s="19">
+      <c r="S17" s="17">
         <v>4</v>
       </c>
-      <c r="T17" s="20" t="s">
+      <c r="T17" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="D18" s="28"/>
+      <c r="B18" s="34"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="10" t="s">
         <v>2</v>
       </c>
@@ -1885,25 +1888,25 @@
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
-      <c r="P18" s="19">
+      <c r="P18" s="17">
         <v>5</v>
       </c>
-      <c r="Q18" s="20" t="s">
+      <c r="Q18" s="18" t="s">
         <v>17</v>
       </c>
       <c r="R18" s="1"/>
-      <c r="S18" s="19">
+      <c r="S18" s="17">
         <v>5</v>
       </c>
-      <c r="T18" s="20" t="s">
+      <c r="T18" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="31">
+      <c r="B19" s="34">
         <v>3</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -1920,23 +1923,23 @@
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
       <c r="N19" s="7"/>
-      <c r="P19" s="19">
+      <c r="P19" s="17">
         <v>6</v>
       </c>
-      <c r="Q19" s="20" t="s">
+      <c r="Q19" s="18" t="s">
         <v>18</v>
       </c>
       <c r="R19" s="1"/>
-      <c r="S19" s="19">
+      <c r="S19" s="17">
         <v>6</v>
       </c>
-      <c r="T19" s="21" t="s">
+      <c r="T19" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
-      <c r="D20" s="28"/>
+      <c r="B20" s="34"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
@@ -1950,23 +1953,23 @@
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
-      <c r="P20" s="19">
+      <c r="P20" s="17">
         <v>7</v>
       </c>
-      <c r="Q20" s="20" t="s">
+      <c r="Q20" s="18" t="s">
         <v>30</v>
       </c>
       <c r="R20" s="1"/>
-      <c r="S20" s="19">
+      <c r="S20" s="17">
         <v>7</v>
       </c>
-      <c r="T20" s="20" t="s">
+      <c r="T20" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
-      <c r="D21" s="28"/>
+      <c r="B21" s="34"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="10" t="s">
         <v>2</v>
       </c>
@@ -1980,25 +1983,25 @@
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
-      <c r="P21" s="19">
+      <c r="P21" s="17">
         <v>8</v>
       </c>
-      <c r="Q21" s="20" t="s">
+      <c r="Q21" s="18" t="s">
         <v>34</v>
       </c>
       <c r="R21" s="1"/>
-      <c r="S21" s="19">
+      <c r="S21" s="17">
         <v>8</v>
       </c>
-      <c r="T21" s="20" t="s">
+      <c r="T21" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="31">
+      <c r="B22" s="34">
         <v>4</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -2014,23 +2017,23 @@
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
-      <c r="P22" s="19">
+      <c r="P22" s="17">
         <v>9</v>
       </c>
-      <c r="Q22" s="20" t="s">
+      <c r="Q22" s="18" t="s">
         <v>35</v>
       </c>
       <c r="R22" s="1"/>
-      <c r="S22" s="19">
+      <c r="S22" s="17">
         <v>9</v>
       </c>
-      <c r="T22" s="20" t="s">
+      <c r="T22" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="D23" s="28"/>
+      <c r="B23" s="34"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="10" t="s">
         <v>3</v>
       </c>
@@ -2044,23 +2047,23 @@
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
-      <c r="P23" s="19">
+      <c r="P23" s="17">
         <v>10</v>
       </c>
-      <c r="Q23" s="20" t="s">
+      <c r="Q23" s="18" t="s">
         <v>61</v>
       </c>
       <c r="R23" s="1"/>
-      <c r="S23" s="19">
+      <c r="S23" s="17">
         <v>10</v>
       </c>
-      <c r="T23" s="20" t="s">
+      <c r="T23" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
-      <c r="D24" s="28"/>
+      <c r="B24" s="34"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="10" t="s">
         <v>2</v>
       </c>
@@ -2074,18 +2077,18 @@
       <c r="K24" s="33"/>
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
-      <c r="S24" s="22">
+      <c r="S24" s="20">
         <v>11</v>
       </c>
-      <c r="T24" s="20" t="s">
+      <c r="T24" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="31">
+      <c r="B25" s="34">
         <v>5</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -2094,410 +2097,439 @@
       <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
-      <c r="D26" s="28"/>
+      <c r="B26" s="34"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
       <c r="U26" s="7"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
-      <c r="D27" s="28"/>
+      <c r="B27" s="34"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="31">
+      <c r="B28" s="34">
         <v>6</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="30" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20" t="s">
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20" t="s">
+      <c r="S28" s="18"/>
+      <c r="T28" s="18" t="s">
         <v>75</v>
       </c>
       <c r="U28" s="7"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="31"/>
-      <c r="D29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="P29" s="20">
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="P29" s="18">
         <v>1</v>
       </c>
-      <c r="Q29" s="20" t="s">
+      <c r="Q29" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="S29" s="20">
+      <c r="S29" s="18">
         <v>1</v>
       </c>
-      <c r="T29" s="20" t="s">
+      <c r="T29" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="31"/>
-      <c r="D30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="P30" s="20">
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="P30" s="18">
         <v>2</v>
       </c>
-      <c r="Q30" s="20" t="s">
+      <c r="Q30" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="S30" s="20">
+      <c r="S30" s="18">
         <v>2</v>
       </c>
-      <c r="T30" s="20" t="s">
+      <c r="T30" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="31">
+      <c r="B31" s="34">
         <v>7</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="30" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35">
+        <v>0</v>
+      </c>
+      <c r="H31" s="35">
+        <v>1</v>
+      </c>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
       <c r="N31" s="13"/>
-      <c r="P31" s="20">
+      <c r="P31" s="18">
         <v>3</v>
       </c>
-      <c r="Q31" s="20" t="s">
+      <c r="Q31" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="S31" s="20">
+      <c r="S31" s="18">
         <v>3</v>
       </c>
-      <c r="T31" s="20" t="s">
+      <c r="T31" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="31"/>
-      <c r="D32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="P32" s="20">
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="P32" s="18">
         <v>4</v>
       </c>
-      <c r="Q32" s="20" t="s">
+      <c r="Q32" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="S32" s="20">
+      <c r="S32" s="18">
         <v>4</v>
       </c>
-      <c r="T32" s="20" t="s">
+      <c r="T32" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="31"/>
-      <c r="D33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="P33" s="20">
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="P33" s="18">
         <v>5</v>
       </c>
-      <c r="Q33" s="20" t="s">
+      <c r="Q33" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="S33" s="20">
+      <c r="S33" s="18">
         <v>5</v>
       </c>
-      <c r="T33" s="20" t="s">
+      <c r="T33" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="31">
+      <c r="B34" s="34">
         <v>8</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="30" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
       <c r="O34" s="7"/>
-      <c r="S34" s="20">
+      <c r="S34" s="18">
         <v>6</v>
       </c>
-      <c r="T34" s="20" t="s">
+      <c r="T34" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="31"/>
-      <c r="D35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="S35" s="20">
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="S35" s="18">
         <v>7</v>
       </c>
-      <c r="T35" s="20" t="s">
+      <c r="T35" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="31"/>
-      <c r="D36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
       <c r="Q36" s="13"/>
-      <c r="S36" s="20">
+      <c r="S36" s="18">
         <v>8</v>
       </c>
-      <c r="T36" s="20" t="s">
+      <c r="T36" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="31">
+      <c r="B37" s="34">
         <v>9</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="S37" s="20">
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="S37" s="18">
         <v>9</v>
       </c>
-      <c r="T37" s="20" t="s">
+      <c r="T37" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="31"/>
-      <c r="D38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="31"/>
-      <c r="D39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="31">
+      <c r="B40" s="34">
         <v>10</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="30" t="s">
         <v>60</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="31"/>
-      <c r="D41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="31"/>
-      <c r="D42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F24:M24"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="S13:T13"/>
@@ -2514,31 +2546,6 @@
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/I2C-master/registers/registers.xlsx
+++ b/I2C-master/registers/registers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="101">
   <si>
     <t>CTL</t>
   </si>
@@ -256,6 +256,69 @@
   </si>
   <si>
     <t>word address = byte address</t>
+  </si>
+  <si>
+    <t>IRQ_CTL_MASK</t>
+  </si>
+  <si>
+    <t>IRQ_CTL7</t>
+  </si>
+  <si>
+    <t>IRQ_CTL6</t>
+  </si>
+  <si>
+    <t>IRQ_CTL5</t>
+  </si>
+  <si>
+    <t>IRQ_CTL4</t>
+  </si>
+  <si>
+    <t>IRQ_CTL3</t>
+  </si>
+  <si>
+    <t>IRQ_CTL2</t>
+  </si>
+  <si>
+    <t>IRQ_CTL1</t>
+  </si>
+  <si>
+    <t>IRQ_CTL0</t>
+  </si>
+  <si>
+    <t>IRQ_ST_MASK</t>
+  </si>
+  <si>
+    <t>IRQ_ST7</t>
+  </si>
+  <si>
+    <t>IRQ_ST6</t>
+  </si>
+  <si>
+    <t>IRQ_ST5</t>
+  </si>
+  <si>
+    <t>IRQ_ST4</t>
+  </si>
+  <si>
+    <t>IRQ_ST3</t>
+  </si>
+  <si>
+    <t>IRQ_ST2</t>
+  </si>
+  <si>
+    <t>IRQ_ST1</t>
+  </si>
+  <si>
+    <t>IRQ_ST0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>RS*</t>
+  </si>
+  <si>
+    <t>RS* = S connect to the STATUS BIT</t>
   </si>
 </sst>
 </file>
@@ -376,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,6 +505,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,25 +517,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,18 +897,18 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
@@ -857,7 +940,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -890,7 +973,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="6" t="s">
         <v>3</v>
       </c>
@@ -921,7 +1004,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
@@ -952,7 +1035,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -985,7 +1068,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
@@ -1016,7 +1099,7 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
@@ -1053,22 +1136,22 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="1"/>
       <c r="N15" s="4" t="s">
         <v>22</v>
@@ -1078,20 +1161,20 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
       <c r="L16" s="1"/>
       <c r="N16" s="5" t="s">
         <v>23</v>
@@ -1101,20 +1184,20 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="2"/>
       <c r="N17" s="5" t="s">
         <v>19</v>
@@ -1124,60 +1207,60 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1194,7 +1277,7 @@
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="6" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1294,7 @@
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
@@ -1225,7 +1308,7 @@
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1234,57 +1317,57 @@
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1293,57 +1376,57 @@
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="8"/>
@@ -1358,7 +1441,7 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1373,7 +1456,7 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1386,7 +1469,7 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="8"/>
@@ -1401,7 +1484,7 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1416,7 +1499,7 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="28"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1430,12 +1513,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -1452,6 +1529,12 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1460,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H12"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,11 +1556,11 @@
     <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
@@ -1534,24 +1617,24 @@
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="34"/>
+      <c r="B9" s="31"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10">
@@ -1580,10 +1663,10 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="34">
+      <c r="B10" s="31">
         <v>0</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -1615,8 +1698,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="31"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="10" t="s">
         <v>3</v>
       </c>
@@ -1646,8 +1729,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="31"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="10" t="s">
         <v>2</v>
       </c>
@@ -1677,10 +1760,10 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="34">
+      <c r="B13" s="31">
         <v>1</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="28" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -1710,19 +1793,19 @@
       <c r="M13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="31" t="s">
+      <c r="P13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" s="31"/>
+      <c r="Q13" s="35"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="31" t="s">
+      <c r="S13" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="31"/>
+      <c r="T13" s="35"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="D14" s="27"/>
+      <c r="B14" s="31"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="10" t="s">
         <v>3</v>
       </c>
@@ -1765,8 +1848,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="D15" s="27"/>
+      <c r="B15" s="31"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="10" t="s">
         <v>2</v>
       </c>
@@ -1809,10 +1892,10 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="34">
+      <c r="B16" s="31">
         <v>2</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="28" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -1843,8 +1926,8 @@
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="D17" s="27"/>
+      <c r="B17" s="31"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="10" t="s">
         <v>3</v>
       </c>
@@ -1873,8 +1956,8 @@
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="31"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="10" t="s">
         <v>2</v>
       </c>
@@ -1903,10 +1986,10 @@
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="34">
+      <c r="B19" s="31">
         <v>3</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -1938,8 +2021,8 @@
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="31"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
@@ -1968,8 +2051,8 @@
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="34"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="31"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="10" t="s">
         <v>2</v>
       </c>
@@ -1998,10 +2081,10 @@
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="34">
+      <c r="B22" s="31">
         <v>4</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -2032,8 +2115,8 @@
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
-      <c r="D23" s="27"/>
+      <c r="B23" s="31"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="10" t="s">
         <v>3</v>
       </c>
@@ -2062,8 +2145,8 @@
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
-      <c r="D24" s="27"/>
+      <c r="B24" s="31"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="10" t="s">
         <v>2</v>
       </c>
@@ -2085,10 +2168,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="34">
+      <c r="B25" s="31">
         <v>5</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -2097,60 +2180,60 @@
       <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="34"/>
-      <c r="D26" s="27"/>
+      <c r="B26" s="31"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
       <c r="U26" s="7"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="34"/>
-      <c r="D27" s="27"/>
+      <c r="B27" s="31"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="34">
+      <c r="B28" s="31">
         <v>6</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="34" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -2159,15 +2242,15 @@
       <c r="F28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18" t="s">
         <v>74</v>
@@ -2179,23 +2262,23 @@
       <c r="U28" s="7"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="34"/>
-      <c r="D29" s="30"/>
+      <c r="B29" s="31"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
       <c r="P29" s="18">
         <v>1</v>
       </c>
@@ -2210,23 +2293,23 @@
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="34"/>
-      <c r="D30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
       <c r="P30" s="18">
         <v>2</v>
       </c>
@@ -2241,27 +2324,25 @@
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="34">
+      <c r="B31" s="31">
         <v>7</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35">
-        <v>0</v>
-      </c>
-      <c r="H31" s="35">
-        <v>1</v>
-      </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
+      <c r="F31" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
       <c r="N31" s="13"/>
       <c r="P31" s="18">
         <v>3</v>
@@ -2277,19 +2358,21 @@
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="34"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="12" t="s">
+      <c r="B32" s="31"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
+      <c r="F32" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
       <c r="P32" s="18">
         <v>4</v>
       </c>
@@ -2304,19 +2387,21 @@
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="34"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="12" t="s">
+      <c r="B33" s="31"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
+      <c r="F33" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
       <c r="P33" s="18">
         <v>5</v>
       </c>
@@ -2331,23 +2416,39 @@
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="34">
+      <c r="B34" s="31">
         <v>8</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
+      <c r="F34" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="O34" s="7"/>
       <c r="S34" s="18">
         <v>6</v>
@@ -2357,19 +2458,35 @@
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="34"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="12" t="s">
+      <c r="B35" s="31"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
+      <c r="F35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="S35" s="18">
         <v>7</v>
       </c>
@@ -2378,19 +2495,35 @@
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="34"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="12" t="s">
+      <c r="B36" s="31"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
+      <c r="F36" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="Q36" s="13"/>
       <c r="S36" s="18">
         <v>8</v>
@@ -2400,23 +2533,25 @@
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="34">
+      <c r="B37" s="31">
         <v>9</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
+      <c r="F37" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
       <c r="S37" s="18">
         <v>9</v>
       </c>
@@ -2425,111 +2560,153 @@
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="34"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="12" t="s">
+      <c r="B38" s="31"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
+      <c r="F38" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="34"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="12" t="s">
+      <c r="B39" s="31"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
+      <c r="F39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="34">
+      <c r="B40" s="31">
         <v>10</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
+      <c r="F40" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="J40" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="L40" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="M40" s="40" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="34"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="12" t="s">
+      <c r="B41" s="31"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
+      <c r="F41" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" s="40" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="34"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="12" t="s">
+      <c r="B42" s="31"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
+      <c r="F42" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="J42" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K42" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="L42" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="M42" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H44" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H45" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F24:M24"/>
+  <mergeCells count="48">
+    <mergeCell ref="F39:M39"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="F38:M38"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="S13:T13"/>
@@ -2546,6 +2723,31 @@
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="F20:M20"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/I2C-master/registers/registers.xlsx
+++ b/I2C-master/registers/registers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="102">
   <si>
     <t>CTL</t>
   </si>
@@ -319,6 +319,21 @@
   </si>
   <si>
     <t>RS* = S connect to the STATUS BIT</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -362,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +426,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -505,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -517,40 +538,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1513,6 +1534,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -1529,12 +1556,6 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1545,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:M27"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1577,7 @@
     <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
@@ -1617,7 +1638,7 @@
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="38" t="s">
         <v>78</v>
       </c>
       <c r="D8" s="30" t="s">
@@ -1634,7 +1655,7 @@
       <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
+      <c r="B9" s="38"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10">
@@ -1663,7 +1684,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="31">
+      <c r="B10" s="38">
         <v>0</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -1698,7 +1719,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
+      <c r="B11" s="38"/>
       <c r="D11" s="28"/>
       <c r="E11" s="10" t="s">
         <v>3</v>
@@ -1729,7 +1750,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
+      <c r="B12" s="38"/>
       <c r="D12" s="28"/>
       <c r="E12" s="10" t="s">
         <v>2</v>
@@ -1760,7 +1781,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="31">
+      <c r="B13" s="38">
         <v>1</v>
       </c>
       <c r="D13" s="28" t="s">
@@ -1793,18 +1814,18 @@
       <c r="M13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="35" t="s">
+      <c r="P13" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" s="35"/>
+      <c r="Q13" s="34"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="35" t="s">
+      <c r="S13" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="35"/>
+      <c r="T13" s="34"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
+      <c r="B14" s="38"/>
       <c r="D14" s="28"/>
       <c r="E14" s="10" t="s">
         <v>3</v>
@@ -1848,7 +1869,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
+      <c r="B15" s="38"/>
       <c r="D15" s="28"/>
       <c r="E15" s="10" t="s">
         <v>2</v>
@@ -1892,25 +1913,25 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="31">
+      <c r="B16" s="38">
         <v>2</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
       <c r="P16" s="17">
         <v>3</v>
       </c>
@@ -1926,21 +1947,21 @@
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="10" t="s">
+      <c r="B17" s="38"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
       <c r="P17" s="17">
         <v>4</v>
       </c>
@@ -1956,21 +1977,21 @@
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="10" t="s">
+      <c r="B18" s="38"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
       <c r="P18" s="17">
         <v>5</v>
       </c>
@@ -1986,25 +2007,25 @@
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="31">
+      <c r="B19" s="38">
         <v>3</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
       <c r="N19" s="7"/>
       <c r="P19" s="17">
         <v>6</v>
@@ -2021,21 +2042,21 @@
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="10" t="s">
+      <c r="B20" s="38"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
       <c r="P20" s="17">
         <v>7</v>
       </c>
@@ -2051,21 +2072,21 @@
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="10" t="s">
+      <c r="B21" s="38"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
       <c r="P21" s="17">
         <v>8</v>
       </c>
@@ -2081,13 +2102,13 @@
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="31">
+      <c r="B22" s="38">
         <v>4</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="33" t="s">
@@ -2115,9 +2136,9 @@
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="10" t="s">
+      <c r="B23" s="38"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="27" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="33" t="s">
@@ -2145,9 +2166,9 @@
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="10" t="s">
+      <c r="B24" s="38"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="27" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="33" t="s">
@@ -2168,89 +2189,89 @@
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="31">
+      <c r="B25" s="38">
         <v>5</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="10" t="s">
+      <c r="B26" s="38"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="27" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
       <c r="U26" s="7"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="10" t="s">
+      <c r="B27" s="38"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="27" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
+      <c r="G27" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="31">
+      <c r="B28" s="38">
         <v>6</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18" t="s">
         <v>74</v>
@@ -2262,23 +2283,23 @@
       <c r="U28" s="7"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="31"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="12" t="s">
+      <c r="B29" s="38"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="27" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
       <c r="P29" s="18">
         <v>1</v>
       </c>
@@ -2293,23 +2314,23 @@
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="31"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="12" t="s">
+      <c r="B30" s="38"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="27" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
       <c r="P30" s="18">
         <v>2</v>
       </c>
@@ -2324,25 +2345,25 @@
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="31">
+      <c r="B31" s="38">
         <v>7</v>
       </c>
       <c r="D31" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
       <c r="N31" s="13"/>
       <c r="P31" s="18">
         <v>3</v>
@@ -2358,21 +2379,21 @@
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="31"/>
+      <c r="B32" s="38"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
       <c r="P32" s="18">
         <v>4</v>
       </c>
@@ -2387,21 +2408,21 @@
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="31"/>
+      <c r="B33" s="38"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
       <c r="P33" s="18">
         <v>5</v>
       </c>
@@ -2416,37 +2437,37 @@
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="31">
+      <c r="B34" s="38">
         <v>8</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="J34" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="L34" s="15" t="s">
+      <c r="L34" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="M34" s="15" t="s">
+      <c r="M34" s="39" t="s">
         <v>88</v>
       </c>
       <c r="O34" s="7"/>
@@ -2458,33 +2479,33 @@
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="31"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42" t="s">
+      <c r="B35" s="38"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" s="15" t="s">
+      <c r="F35" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="39" t="s">
         <v>25</v>
       </c>
       <c r="S35" s="18">
@@ -2495,33 +2516,33 @@
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="31"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42" t="s">
+      <c r="B36" s="38"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="J36" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="K36" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="L36" s="15" t="s">
+      <c r="L36" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="M36" s="15" t="s">
+      <c r="M36" s="39" t="s">
         <v>98</v>
       </c>
       <c r="Q36" s="13"/>
@@ -2533,25 +2554,25 @@
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="31">
+      <c r="B37" s="38">
         <v>9</v>
       </c>
       <c r="D37" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="37" t="s">
+      <c r="E37" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F37" s="39" t="s">
+      <c r="F37" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
       <c r="S37" s="18">
         <v>9</v>
       </c>
@@ -2560,47 +2581,47 @@
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="31"/>
+      <c r="B38" s="38"/>
       <c r="D38" s="36"/>
-      <c r="E38" s="37" t="s">
+      <c r="E38" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="31"/>
+      <c r="B39" s="38"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="39" t="s">
+      <c r="F39" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="31">
+      <c r="B40" s="38">
         <v>10</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="42" t="s">
         <v>1</v>
       </c>
       <c r="F40" s="40" t="s">
@@ -2629,9 +2650,9 @@
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="31"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="27" t="s">
+      <c r="B41" s="38"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42" t="s">
         <v>3</v>
       </c>
       <c r="F41" s="40" t="s">
@@ -2660,9 +2681,9 @@
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="31"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="27" t="s">
+      <c r="B42" s="38"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="42" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="40" t="s">
@@ -2691,22 +2712,41 @@
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="H44" s="39" t="s">
+      <c r="H44" s="31" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="H45" s="39"/>
+      <c r="H45" s="31"/>
+      <c r="J45" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F39:M39"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="F33:M33"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F24:M24"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="S13:T13"/>
@@ -2723,31 +2763,13 @@
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="F39:M39"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="F38:M38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/I2C-master/registers/registers.xlsx
+++ b/I2C-master/registers/registers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="106">
   <si>
     <t>CTL</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>CTL_RESERVED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Register for I2C Master Engine </t>
   </si>
   <si>
     <t xml:space="preserve">Register for I2C Global Engine </t>
@@ -335,12 +332,27 @@
       <t>W</t>
     </r>
   </si>
+  <si>
+    <t>INTERRUPT CTL CLEAR</t>
+  </si>
+  <si>
+    <t>INTERRUPT STATUS CLEAR</t>
+  </si>
+  <si>
+    <t>IRQ_CTL_CLEAR</t>
+  </si>
+  <si>
+    <t>IRQ_ST_CLEAR</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,8 +388,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,8 +452,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -456,11 +482,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -483,13 +663,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -497,9 +671,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,23 +681,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -538,40 +702,218 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -918,21 +1260,21 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="B7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
         <v>7</v>
@@ -961,7 +1303,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -994,7 +1336,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="6" t="s">
         <v>3</v>
       </c>
@@ -1025,7 +1367,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
@@ -1056,7 +1398,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1075,7 +1417,7 @@
         <v>34</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>28</v>
@@ -1089,7 +1431,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
@@ -1120,7 +1462,7 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
@@ -1157,22 +1499,22 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="1"/>
       <c r="N15" s="4" t="s">
         <v>22</v>
@@ -1182,20 +1524,20 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="1"/>
       <c r="N16" s="5" t="s">
         <v>23</v>
@@ -1205,20 +1547,20 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="2"/>
       <c r="N17" s="5" t="s">
         <v>19</v>
@@ -1228,60 +1570,60 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1298,7 +1640,7 @@
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="6" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1648,8 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="15" t="s">
-        <v>57</v>
+      <c r="H22" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1315,7 +1657,7 @@
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
@@ -1329,7 +1671,7 @@
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1338,57 +1680,57 @@
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1397,57 +1739,57 @@
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="28"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="8"/>
@@ -1462,13 +1804,13 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="29"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="15" t="s">
-        <v>57</v>
+      <c r="G31" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1477,7 +1819,7 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="29"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1490,7 +1832,7 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="8"/>
@@ -1505,13 +1847,13 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="15" t="s">
-        <v>57</v>
+      <c r="G34" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -1520,7 +1862,7 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="29"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1534,12 +1876,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -1556,6 +1892,12 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1564,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,13 +1959,13 @@
       <c r="I5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>56</v>
+      <c r="K5" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1634,1106 +1976,1247 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="30" t="s">
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="96"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
+      <c r="B9" s="86"/>
+      <c r="D9" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="79">
         <v>7</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="31">
         <v>6</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="31">
         <v>5</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="31">
         <v>4</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="31">
         <v>3</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="31">
         <v>2</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="31">
         <v>1</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="38">
+      <c r="B10" s="86">
         <v>0</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="70" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="10" t="s">
+      <c r="B11" s="86"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="72" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="10" t="s">
+      <c r="B12" s="86"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="M12" s="76" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="38">
+      <c r="B13" s="86">
         <v>1</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" s="27"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="86"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="14">
+        <v>1</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="86"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="14">
+        <v>2</v>
+      </c>
+      <c r="T15" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="86">
+        <v>2</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="58"/>
+      <c r="P16" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="14">
+        <v>3</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="86"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="59"/>
+      <c r="P17" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="14">
+        <v>4</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="86"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="61"/>
+      <c r="P18" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="14">
+        <v>5</v>
+      </c>
+      <c r="T18" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="86">
+        <v>3</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="7"/>
+      <c r="P19" s="14">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="14">
+        <v>6</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="86"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="59"/>
+      <c r="P20" s="14">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="14">
+        <v>7</v>
+      </c>
+      <c r="T20" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="86"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="61"/>
+      <c r="P21" s="14">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="14">
+        <v>8</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="86">
+        <v>4</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="T13" s="34"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="10" t="s">
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="63"/>
+      <c r="P22" s="14">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="14">
+        <v>9</v>
+      </c>
+      <c r="T22" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="86"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F23" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="64"/>
+      <c r="P23" s="14">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R23" s="1"/>
+      <c r="S23" s="14">
+        <v>10</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="86"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
+      <c r="S24" s="17">
+        <v>11</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="86">
+        <v>5</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="58"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="86"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="59"/>
+      <c r="U26" s="7"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="86"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="61"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="86">
+        <v>6</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="52"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="U28" s="7"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="86"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="53"/>
+      <c r="P29" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S29" s="15">
+        <v>1</v>
+      </c>
+      <c r="T29" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="86"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="56"/>
+      <c r="P30" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S30" s="15">
+        <v>2</v>
+      </c>
+      <c r="T30" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="86">
+        <v>7</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="11"/>
+      <c r="P31" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" s="15">
+        <v>3</v>
+      </c>
+      <c r="T31" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="86"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="38"/>
+      <c r="P32" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="15">
+        <v>4</v>
+      </c>
+      <c r="T32" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="86"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="41"/>
+      <c r="P33" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="S33" s="15">
+        <v>5</v>
+      </c>
+      <c r="T33" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="86">
+        <v>8</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="36"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="86"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="38"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="86"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="41"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="86">
+        <v>9</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="L37" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="M37" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="O37" s="7"/>
+      <c r="S37" s="15">
+        <v>6</v>
+      </c>
+      <c r="T37" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="86"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="G38" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="H38" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="I38" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="J38" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="K38" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="S38" s="15">
+        <v>7</v>
+      </c>
+      <c r="T38" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="86"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="17">
+      <c r="G39" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J39" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="K39" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="L39" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="M39" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q39" s="11"/>
+      <c r="S39" s="15">
+        <v>8</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="86">
+        <v>10</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="Q14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="17">
+      <c r="F40" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="36"/>
+      <c r="S40" s="15">
+        <v>9</v>
+      </c>
+      <c r="T40" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="86"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="38"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="86"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="41"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="86">
+        <v>11</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="T14" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="10" t="s">
+      <c r="F43" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="36"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="86"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="38"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="86"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="23" t="s">
+      <c r="F45" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="41"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="86">
+        <v>12</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J46" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="K46" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="L46" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="M46" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="86"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="86"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="G48" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="17">
-        <v>2</v>
-      </c>
-      <c r="T15" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="38">
-        <v>2</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="P16" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="17">
-        <v>3</v>
-      </c>
-      <c r="T16" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="38"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="P17" s="17">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="17">
-        <v>4</v>
-      </c>
-      <c r="T17" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="P18" s="17">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="17">
-        <v>5</v>
-      </c>
-      <c r="T18" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="38">
-        <v>3</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="7"/>
-      <c r="P19" s="17">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="17">
-        <v>6</v>
-      </c>
-      <c r="T19" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="P20" s="17">
-        <v>7</v>
-      </c>
-      <c r="Q20" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="17">
-        <v>7</v>
-      </c>
-      <c r="T20" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="38"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="P21" s="17">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="R21" s="1"/>
-      <c r="S21" s="17">
-        <v>8</v>
-      </c>
-      <c r="T21" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="38">
-        <v>4</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="P22" s="17">
-        <v>9</v>
-      </c>
-      <c r="Q22" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="R22" s="1"/>
-      <c r="S22" s="17">
-        <v>9</v>
-      </c>
-      <c r="T22" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="38"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="P23" s="17">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="17">
-        <v>10</v>
-      </c>
-      <c r="T23" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="S24" s="20">
-        <v>11</v>
-      </c>
-      <c r="T24" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="38">
-        <v>5</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="38"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="U26" s="7"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="38"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="38">
-        <v>6</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="U28" s="7"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="38"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="P29" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="S29" s="18">
-        <v>1</v>
-      </c>
-      <c r="T29" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="38"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="P30" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="S30" s="18">
-        <v>2</v>
-      </c>
-      <c r="T30" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="38">
-        <v>7</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="13"/>
-      <c r="P31" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="S31" s="18">
-        <v>3</v>
-      </c>
-      <c r="T31" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="38"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="P32" s="18">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="18">
-        <v>4</v>
-      </c>
-      <c r="T32" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="38"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="32" t="s">
+      <c r="H48" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="P33" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="S33" s="18">
-        <v>5</v>
-      </c>
-      <c r="T33" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="38">
-        <v>8</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="H34" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="I34" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="J34" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="K34" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="L34" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="M34" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="O34" s="7"/>
-      <c r="S34" s="18">
-        <v>6</v>
-      </c>
-      <c r="T34" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="38"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="S35" s="18">
-        <v>7</v>
-      </c>
-      <c r="T35" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="38"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="39" t="s">
+      <c r="I48" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="H36" s="39" t="s">
+      <c r="J48" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="I36" s="39" t="s">
+      <c r="K48" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="J36" s="39" t="s">
+      <c r="L48" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="K36" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="L36" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="M36" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q36" s="13"/>
-      <c r="S36" s="18">
-        <v>8</v>
-      </c>
-      <c r="T36" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="38">
-        <v>9</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="S37" s="18">
-        <v>9</v>
-      </c>
-      <c r="T37" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="38"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="38"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="38">
-        <v>10</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="I40" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="J40" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="K40" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="L40" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="M40" s="40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="38"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="I41" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="J41" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="L41" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M41" s="40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="38"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="40" t="s">
+      <c r="M48" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" s="40" t="s">
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H50" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="I42" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="J42" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="K42" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="L42" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="M42" s="40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="H44" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="H45" s="31"/>
-      <c r="J45" s="7"/>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H51" s="29"/>
+      <c r="J51" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="58">
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="F43:M43"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="F44:M44"/>
+    <mergeCell ref="F45:M45"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:D36"/>
     <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="F42:M42"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="F41:M41"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="G28:M28"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="G29:M29"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="F20:M20"/>
     <mergeCell ref="F21:M21"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="D25:D27"/>
@@ -2747,29 +3230,18 @@
     <mergeCell ref="F22:M22"/>
     <mergeCell ref="F23:M23"/>
     <mergeCell ref="F24:M24"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="G28:M28"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="G29:M29"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F39:M39"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="F33:M33"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B43:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2791,10 +3263,10 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -2802,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -2810,7 +3282,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -2818,7 +3290,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -2826,7 +3298,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -2834,7 +3306,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -2842,7 +3314,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -2850,7 +3322,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -2858,7 +3330,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">

--- a/I2C-master/registers/registers.xlsx
+++ b/I2C-master/registers/registers.xlsx
@@ -640,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -693,6 +693,100 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,123 +796,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,94 +911,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1260,18 +1257,18 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
@@ -1303,7 +1300,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="54" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1336,7 +1333,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="6" t="s">
         <v>3</v>
       </c>
@@ -1367,7 +1364,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
@@ -1398,7 +1395,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="54" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1431,7 +1428,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
@@ -1462,7 +1459,7 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
@@ -1499,22 +1496,22 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
       <c r="L15" s="1"/>
       <c r="N15" s="4" t="s">
         <v>22</v>
@@ -1524,20 +1521,20 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="1"/>
       <c r="N16" s="5" t="s">
         <v>23</v>
@@ -1547,20 +1544,20 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="2"/>
       <c r="N17" s="5" t="s">
         <v>19</v>
@@ -1570,60 +1567,60 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="54" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="54" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1640,7 +1637,7 @@
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="6" t="s">
         <v>3</v>
       </c>
@@ -1657,7 +1654,7 @@
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
@@ -1671,7 +1668,7 @@
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="54" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1680,57 +1677,57 @@
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="54" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1739,57 +1736,57 @@
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="55" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="8"/>
@@ -1804,7 +1801,7 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1819,7 +1816,7 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1832,7 +1829,7 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="8"/>
@@ -1847,7 +1844,7 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1862,7 +1859,7 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1876,6 +1873,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -1892,12 +1895,6 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1908,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,92 +1977,92 @@
       <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="96"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="86"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="86"/>
-      <c r="D9" s="33" t="s">
+      <c r="B9" s="66"/>
+      <c r="D9" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="79">
+      <c r="E9" s="22"/>
+      <c r="F9" s="41">
         <v>7</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="22">
         <v>6</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="22">
         <v>5</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="22">
         <v>4</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="22">
         <v>3</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="22">
         <v>2</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="22">
         <v>1</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="86">
+      <c r="B10" s="66">
         <v>0</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="87" t="s">
+      <c r="I10" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="87" t="s">
+      <c r="J10" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="93" t="s">
+      <c r="K10" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="87" t="s">
+      <c r="L10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="86"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="81" t="s">
+      <c r="B11" s="66"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="43" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="18" t="s">
@@ -2077,101 +2074,101 @@
       <c r="H11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="88" t="s">
+      <c r="I11" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="88" t="s">
+      <c r="J11" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="88" t="s">
+      <c r="K11" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="88" t="s">
+      <c r="L11" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="72" t="s">
+      <c r="M11" s="35" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="86"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="82" t="s">
+      <c r="B12" s="66"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="74" t="s">
+      <c r="G12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="89" t="s">
+      <c r="I12" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="89" t="s">
+      <c r="J12" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="89" t="s">
+      <c r="K12" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="89" t="s">
+      <c r="L12" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="76" t="s">
+      <c r="M12" s="38" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="86">
+      <c r="B13" s="66">
         <v>1</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="68" t="s">
+      <c r="H13" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="68" t="s">
+      <c r="I13" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="69" t="s">
+      <c r="K13" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="69" t="s">
+      <c r="L13" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="70" t="s">
+      <c r="M13" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="27" t="s">
+      <c r="P13" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="27"/>
+      <c r="Q13" s="71"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="27" t="s">
+      <c r="S13" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="T13" s="27"/>
+      <c r="T13" s="71"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="86"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="81" t="s">
+      <c r="B14" s="66"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="43" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="20" t="s">
@@ -2195,7 +2192,7 @@
       <c r="L14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="72" t="s">
+      <c r="M14" s="35" t="s">
         <v>21</v>
       </c>
       <c r="P14" s="14">
@@ -2213,33 +2210,33 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="86"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="82" t="s">
+      <c r="B15" s="66"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="75" t="s">
+      <c r="G15" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="74" t="s">
+      <c r="H15" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="74" t="s">
+      <c r="I15" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="75" t="s">
+      <c r="J15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="75" t="s">
+      <c r="K15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="75" t="s">
+      <c r="L15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="76" t="s">
+      <c r="M15" s="38" t="s">
         <v>32</v>
       </c>
       <c r="P15" s="14">
@@ -2257,25 +2254,25 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="86">
+      <c r="B16" s="66">
         <v>2</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="58"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
       <c r="P16" s="14">
         <v>3</v>
       </c>
@@ -2291,21 +2288,21 @@
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="86"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="84" t="s">
+      <c r="B17" s="66"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="59"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
       <c r="P17" s="14">
         <v>4</v>
       </c>
@@ -2321,21 +2318,21 @@
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="86"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="85" t="s">
+      <c r="B18" s="66"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="61"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
       <c r="P18" s="14">
         <v>5</v>
       </c>
@@ -2351,25 +2348,25 @@
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="86">
+      <c r="B19" s="66">
         <v>3</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="58"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
       <c r="N19" s="7"/>
       <c r="P19" s="14">
         <v>6</v>
@@ -2386,21 +2383,21 @@
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="86"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="84" t="s">
+      <c r="B20" s="66"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="59"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="75"/>
       <c r="P20" s="14">
         <v>7</v>
       </c>
@@ -2416,21 +2413,21 @@
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="86"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="85" t="s">
+      <c r="B21" s="66"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="61"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="77"/>
       <c r="P21" s="14">
         <v>8</v>
       </c>
@@ -2446,25 +2443,25 @@
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="86">
+      <c r="B22" s="66">
         <v>4</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="63"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="91"/>
       <c r="P22" s="14">
         <v>9</v>
       </c>
@@ -2480,21 +2477,21 @@
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="86"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="84" t="s">
+      <c r="B23" s="66"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="64"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="93"/>
       <c r="P23" s="14">
         <v>10</v>
       </c>
@@ -2510,21 +2507,21 @@
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="86"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="85" t="s">
+      <c r="B24" s="66"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="95"/>
       <c r="S24" s="17">
         <v>11</v>
       </c>
@@ -2533,89 +2530,89 @@
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="86">
+      <c r="B25" s="66">
         <v>5</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="83" t="s">
+      <c r="E25" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="90" t="s">
+      <c r="F25" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="58"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="73"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="86"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="84" t="s">
+      <c r="B26" s="66"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="91" t="s">
+      <c r="F26" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="59"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="75"/>
       <c r="U26" s="7"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="86"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="85" t="s">
+      <c r="B27" s="66"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="92" t="s">
+      <c r="F27" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="61"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="77"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="86">
+      <c r="B28" s="66">
         <v>6</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="83" t="s">
+      <c r="E28" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="52"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="79"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15" t="s">
         <v>73</v>
@@ -2627,23 +2624,23 @@
       <c r="U28" s="7"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="86"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="84" t="s">
+      <c r="B29" s="66"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="53"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="81"/>
       <c r="P29" s="15">
         <v>1</v>
       </c>
@@ -2658,23 +2655,23 @@
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="86"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="85" t="s">
+      <c r="B30" s="66"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="54" t="s">
+      <c r="F30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="56"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="83"/>
       <c r="P30" s="15">
         <v>2</v>
       </c>
@@ -2689,25 +2686,25 @@
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="86">
+      <c r="B31" s="66">
         <v>7</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="83" t="s">
+      <c r="E31" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="36"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="61"/>
       <c r="N31" s="11"/>
       <c r="P31" s="15">
         <v>3</v>
@@ -2723,21 +2720,21 @@
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="86"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="84" t="s">
+      <c r="B32" s="66"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="38"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="63"/>
       <c r="P32" s="15">
         <v>4</v>
       </c>
@@ -2752,21 +2749,21 @@
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="86"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="85" t="s">
+      <c r="B33" s="66"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="41"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="65"/>
       <c r="P33" s="15">
         <v>5</v>
       </c>
@@ -2781,104 +2778,104 @@
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="86">
+      <c r="B34" s="66">
         <v>8</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="E34" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="36"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="61"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
       <c r="S34" s="15"/>
       <c r="T34" s="15"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="86"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="84" t="s">
+      <c r="B35" s="66"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="38"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="63"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
       <c r="S35" s="15"/>
       <c r="T35" s="15"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="86"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="85" t="s">
+      <c r="B36" s="66"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="41"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="65"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
       <c r="S36" s="15"/>
       <c r="T36" s="15"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="86">
+      <c r="B37" s="66">
         <v>9</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="83" t="s">
+      <c r="E37" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G37" s="43" t="s">
+      <c r="G37" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H37" s="43" t="s">
+      <c r="H37" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="43" t="s">
+      <c r="I37" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J37" s="43" t="s">
+      <c r="J37" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="K37" s="43" t="s">
+      <c r="K37" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="L37" s="43" t="s">
+      <c r="L37" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="M37" s="44" t="s">
+      <c r="M37" s="26" t="s">
         <v>87</v>
       </c>
       <c r="O37" s="7"/>
@@ -2890,9 +2887,9 @@
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="86"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="84" t="s">
+      <c r="B38" s="66"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="46" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="21" t="s">
@@ -2916,7 +2913,7 @@
       <c r="L38" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M38" s="46" t="s">
+      <c r="M38" s="27" t="s">
         <v>25</v>
       </c>
       <c r="S38" s="15">
@@ -2927,33 +2924,33 @@
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="86"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="85" t="s">
+      <c r="B39" s="66"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="48" t="s">
+      <c r="G39" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="H39" s="48" t="s">
+      <c r="H39" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="I39" s="48" t="s">
+      <c r="I39" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="J39" s="48" t="s">
+      <c r="J39" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="K39" s="48" t="s">
+      <c r="K39" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="L39" s="48" t="s">
+      <c r="L39" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="M39" s="49" t="s">
+      <c r="M39" s="29" t="s">
         <v>97</v>
       </c>
       <c r="Q39" s="11"/>
@@ -2965,25 +2962,25 @@
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="86">
+      <c r="B40" s="66">
         <v>10</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="83" t="s">
+      <c r="E40" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="35" t="s">
+      <c r="F40" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="36"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="61"/>
       <c r="S40" s="15">
         <v>9</v>
       </c>
@@ -2992,133 +2989,133 @@
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="86"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="84" t="s">
+      <c r="B41" s="66"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="38"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="63"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="86"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="85" t="s">
+      <c r="B42" s="66"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="41"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="65"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="86">
+      <c r="B43" s="66">
         <v>11</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="35" t="s">
+      <c r="F43" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="36"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="61"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="86"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="84" t="s">
+      <c r="B44" s="66"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="38"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="63"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="86"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="85" t="s">
+      <c r="B45" s="66"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="F45" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="41"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="65"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="86">
+      <c r="B46" s="66">
         <v>12</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="83" t="s">
+      <c r="E46" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="43" t="s">
+      <c r="F46" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="43" t="s">
+      <c r="G46" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="H46" s="43" t="s">
+      <c r="H46" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="I46" s="43" t="s">
+      <c r="I46" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="J46" s="43" t="s">
+      <c r="J46" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="K46" s="43" t="s">
+      <c r="K46" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="L46" s="43" t="s">
+      <c r="L46" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="M46" s="44" t="s">
+      <c r="M46" s="26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="86"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="84"/>
+      <c r="B47" s="66"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="46"/>
       <c r="F47" s="21" t="s">
         <v>25</v>
       </c>
@@ -3140,85 +3137,60 @@
       <c r="L47" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M47" s="46" t="s">
+      <c r="M47" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="86"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="48" t="s">
+      <c r="B48" s="66"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G48" s="48" t="s">
+      <c r="G48" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="48" t="s">
+      <c r="H48" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="I48" s="48" t="s">
+      <c r="I48" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J48" s="48" t="s">
+      <c r="J48" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="K48" s="48" t="s">
+      <c r="K48" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="L48" s="48" t="s">
+      <c r="L48" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="M48" s="49" t="s">
+      <c r="M48" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H50" s="29" t="s">
+      <c r="H50" s="67" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H51" s="29"/>
+      <c r="H51" s="67"/>
       <c r="J51" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="F34:M34"/>
-    <mergeCell ref="F43:M43"/>
-    <mergeCell ref="F35:M35"/>
-    <mergeCell ref="F36:M36"/>
-    <mergeCell ref="F44:M44"/>
-    <mergeCell ref="F45:M45"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="F42:M42"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="F33:M33"/>
-    <mergeCell ref="F40:M40"/>
-    <mergeCell ref="F41:M41"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="G28:M28"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="G29:M29"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="D8:M8"/>
     <mergeCell ref="D10:D12"/>
@@ -3230,18 +3202,43 @@
     <mergeCell ref="F22:M22"/>
     <mergeCell ref="F23:M23"/>
     <mergeCell ref="F24:M24"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="G28:M28"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="G29:M29"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="F41:M41"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="F42:M42"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="D46:D48"/>
     <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
     <mergeCell ref="B43:B45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="F43:M43"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="F44:M44"/>
+    <mergeCell ref="F45:M45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/I2C-master/registers/registers.xlsx
+++ b/I2C-master/registers/registers.xlsx
@@ -640,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -796,6 +796,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -805,6 +808,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -823,9 +901,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,79 +913,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1873,12 +1879,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -1895,6 +1895,12 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1906,7 +1912,7 @@
   <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="J13" sqref="J13:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,24 +1983,24 @@
       <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="86"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="66"/>
+      <c r="B9" s="57"/>
       <c r="D9" s="24" t="s">
         <v>105</v>
       </c>
@@ -2025,10 +2031,10 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="66">
+      <c r="B10" s="57">
         <v>0</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="42" t="s">
@@ -2060,8 +2066,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="66"/>
-      <c r="D11" s="88"/>
+      <c r="B11" s="57"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="43" t="s">
         <v>3</v>
       </c>
@@ -2091,8 +2097,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="66"/>
-      <c r="D12" s="89"/>
+      <c r="B12" s="57"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="44" t="s">
         <v>2</v>
       </c>
@@ -2122,10 +2128,10 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="66">
+      <c r="B13" s="57">
         <v>1</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="64" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="42" t="s">
@@ -2155,19 +2161,19 @@
       <c r="M13" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="71" t="s">
+      <c r="P13" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="71"/>
+      <c r="Q13" s="85"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="71" t="s">
+      <c r="S13" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="T13" s="71"/>
+      <c r="T13" s="85"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="66"/>
-      <c r="D14" s="88"/>
+      <c r="B14" s="57"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="43" t="s">
         <v>3</v>
       </c>
@@ -2210,8 +2216,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="66"/>
-      <c r="D15" s="89"/>
+      <c r="B15" s="57"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="44" t="s">
         <v>2</v>
       </c>
@@ -2254,25 +2260,25 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="66">
+      <c r="B16" s="57">
         <v>2</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="58" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="73"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="68"/>
       <c r="P16" s="14">
         <v>3</v>
       </c>
@@ -2288,21 +2294,21 @@
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="66"/>
-      <c r="D17" s="58"/>
+      <c r="B17" s="57"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="75"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="70"/>
       <c r="P17" s="14">
         <v>4</v>
       </c>
@@ -2318,21 +2324,21 @@
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="66"/>
-      <c r="D18" s="59"/>
+      <c r="B18" s="57"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="76" t="s">
+      <c r="F18" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="77"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="P18" s="14">
         <v>5</v>
       </c>
@@ -2348,25 +2354,25 @@
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="66">
+      <c r="B19" s="57">
         <v>3</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="58" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="72" t="s">
+      <c r="F19" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="68"/>
       <c r="N19" s="7"/>
       <c r="P19" s="14">
         <v>6</v>
@@ -2383,21 +2389,21 @@
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="66"/>
-      <c r="D20" s="58"/>
+      <c r="B20" s="57"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="75"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="70"/>
       <c r="P20" s="14">
         <v>7</v>
       </c>
@@ -2413,21 +2419,21 @@
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="66"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="57"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="76" t="s">
+      <c r="F21" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="77"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="97"/>
       <c r="P21" s="14">
         <v>8</v>
       </c>
@@ -2443,25 +2449,25 @@
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="66">
+      <c r="B22" s="57">
         <v>4</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="58" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="90" t="s">
+      <c r="F22" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="91"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="74"/>
       <c r="P22" s="14">
         <v>9</v>
       </c>
@@ -2477,21 +2483,21 @@
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="66"/>
-      <c r="D23" s="58"/>
+      <c r="B23" s="57"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="92" t="s">
+      <c r="F23" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="93"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="76"/>
       <c r="P23" s="14">
         <v>10</v>
       </c>
@@ -2507,21 +2513,21 @@
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="66"/>
-      <c r="D24" s="59"/>
+      <c r="B24" s="57"/>
+      <c r="D24" s="60"/>
       <c r="E24" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="94" t="s">
+      <c r="F24" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="95"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="78"/>
       <c r="S24" s="17">
         <v>11</v>
       </c>
@@ -2530,10 +2536,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="66">
+      <c r="B25" s="57">
         <v>5</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="58" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="45" t="s">
@@ -2542,60 +2548,60 @@
       <c r="F25" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="72" t="s">
+      <c r="G25" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="73"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="68"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="66"/>
-      <c r="D26" s="58"/>
+      <c r="B26" s="57"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="46" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="74" t="s">
+      <c r="G26" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="75"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="70"/>
       <c r="U26" s="7"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="66"/>
-      <c r="D27" s="59"/>
+      <c r="B27" s="57"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="47" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="76" t="s">
+      <c r="G27" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="77"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="72"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="66">
+      <c r="B28" s="57">
         <v>6</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="58" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="45" t="s">
@@ -2604,15 +2610,15 @@
       <c r="F28" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="78" t="s">
+      <c r="G28" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="80"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15" t="s">
         <v>73</v>
@@ -2624,23 +2630,23 @@
       <c r="U28" s="7"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="66"/>
-      <c r="D29" s="58"/>
+      <c r="B29" s="57"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="46" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="80" t="s">
+      <c r="G29" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="82"/>
       <c r="P29" s="15">
         <v>1</v>
       </c>
@@ -2655,23 +2661,23 @@
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="66"/>
-      <c r="D30" s="59"/>
+      <c r="B30" s="57"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="47" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="82" t="s">
+      <c r="G30" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="84"/>
       <c r="P30" s="15">
         <v>2</v>
       </c>
@@ -2686,25 +2692,25 @@
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="66">
+      <c r="B31" s="57">
         <v>7</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="58" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="61"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="87"/>
       <c r="N31" s="11"/>
       <c r="P31" s="15">
         <v>3</v>
@@ -2720,21 +2726,21 @@
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="66"/>
-      <c r="D32" s="58"/>
+      <c r="B32" s="57"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="62" t="s">
+      <c r="F32" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="63"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="89"/>
       <c r="P32" s="15">
         <v>4</v>
       </c>
@@ -2749,21 +2755,21 @@
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="66"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="57"/>
+      <c r="D33" s="60"/>
       <c r="E33" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="64" t="s">
+      <c r="F33" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="65"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="91"/>
       <c r="P33" s="15">
         <v>5</v>
       </c>
@@ -2778,77 +2784,77 @@
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="66">
+      <c r="B34" s="57">
         <v>8</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="58" t="s">
         <v>101</v>
       </c>
       <c r="E34" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="60" t="s">
+      <c r="F34" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="61"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="87"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
       <c r="S34" s="15"/>
       <c r="T34" s="15"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="66"/>
-      <c r="D35" s="58"/>
+      <c r="B35" s="57"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="62" t="s">
+      <c r="F35" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="63"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="89"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
       <c r="S35" s="15"/>
       <c r="T35" s="15"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="66"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="57"/>
+      <c r="D36" s="60"/>
       <c r="E36" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="64" t="s">
+      <c r="F36" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="65"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="91"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
       <c r="S36" s="15"/>
       <c r="T36" s="15"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="66">
+      <c r="B37" s="57">
         <v>9</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="58" t="s">
         <v>58</v>
       </c>
       <c r="E37" s="45" t="s">
@@ -2887,8 +2893,8 @@
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="66"/>
-      <c r="D38" s="58"/>
+      <c r="B38" s="57"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="46" t="s">
         <v>3</v>
       </c>
@@ -2924,8 +2930,8 @@
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="66"/>
-      <c r="D39" s="59"/>
+      <c r="B39" s="57"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="47" t="s">
         <v>2</v>
       </c>
@@ -2962,25 +2968,25 @@
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="66">
+      <c r="B40" s="57">
         <v>10</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="58" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="60" t="s">
+      <c r="F40" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="61"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="87"/>
       <c r="S40" s="15">
         <v>9</v>
       </c>
@@ -2989,99 +2995,99 @@
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="66"/>
-      <c r="D41" s="58"/>
+      <c r="B41" s="57"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="62" t="s">
+      <c r="F41" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="63"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="89"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="66"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="57"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="64" t="s">
+      <c r="F42" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="65"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="91"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="66">
+      <c r="B43" s="57">
         <v>11</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="58" t="s">
         <v>102</v>
       </c>
       <c r="E43" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="60" t="s">
+      <c r="F43" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="61"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="87"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="66"/>
-      <c r="D44" s="58"/>
+      <c r="B44" s="57"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="62" t="s">
+      <c r="F44" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="63"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="89"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="66"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="57"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="64" t="s">
+      <c r="F45" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="65"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="91"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="66">
+      <c r="B46" s="57">
         <v>12</v>
       </c>
-      <c r="D46" s="68" t="s">
+      <c r="D46" s="93" t="s">
         <v>59</v>
       </c>
       <c r="E46" s="45" t="s">
@@ -3113,8 +3119,8 @@
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="66"/>
-      <c r="D47" s="69"/>
+      <c r="B47" s="57"/>
+      <c r="D47" s="94"/>
       <c r="E47" s="46"/>
       <c r="F47" s="21" t="s">
         <v>25</v>
@@ -3142,8 +3148,8 @@
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="66"/>
-      <c r="D48" s="70"/>
+      <c r="B48" s="57"/>
+      <c r="D48" s="95"/>
       <c r="E48" s="47"/>
       <c r="F48" s="28" t="s">
         <v>33</v>
@@ -3171,26 +3177,47 @@
       </c>
     </row>
     <row r="50" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H50" s="67" t="s">
+      <c r="H50" s="92" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H51" s="67"/>
+      <c r="H51" s="92"/>
       <c r="J51" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="F42:M42"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="F43:M43"/>
+    <mergeCell ref="F44:M44"/>
+    <mergeCell ref="F45:M45"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="G28:M28"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="G29:M29"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="F41:M41"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="F36:M36"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="D8:M8"/>
     <mergeCell ref="D10:D12"/>
@@ -3207,38 +3234,17 @@
     <mergeCell ref="F20:M20"/>
     <mergeCell ref="F21:M21"/>
     <mergeCell ref="D22:D24"/>
-    <mergeCell ref="G28:M28"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="G29:M29"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="F33:M33"/>
-    <mergeCell ref="F40:M40"/>
-    <mergeCell ref="F41:M41"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="F42:M42"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="F34:M34"/>
-    <mergeCell ref="F43:M43"/>
-    <mergeCell ref="F35:M35"/>
-    <mergeCell ref="F36:M36"/>
-    <mergeCell ref="F44:M44"/>
-    <mergeCell ref="F45:M45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/I2C-master/registers/registers.xlsx
+++ b/I2C-master/registers/registers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="107">
   <si>
     <t>CTL</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>BIT</t>
+  </si>
+  <si>
+    <t>Baudrate</t>
   </si>
 </sst>
 </file>
@@ -799,6 +802,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,6 +829,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,24 +898,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,57 +914,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1879,6 +1882,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -1895,12 +1904,6 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1909,10 +1912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:M15"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="K39" sqref="K37:K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,18 +1989,18 @@
       <c r="B8" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="86"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="57"/>
@@ -2034,7 +2037,7 @@
       <c r="B10" s="57">
         <v>0</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="87" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="42" t="s">
@@ -2067,7 +2070,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="57"/>
-      <c r="D11" s="65"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="43" t="s">
         <v>3</v>
       </c>
@@ -2098,7 +2101,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="57"/>
-      <c r="D12" s="66"/>
+      <c r="D12" s="89"/>
       <c r="E12" s="44" t="s">
         <v>2</v>
       </c>
@@ -2131,7 +2134,7 @@
       <c r="B13" s="57">
         <v>1</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="87" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="42" t="s">
@@ -2161,19 +2164,19 @@
       <c r="M13" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="85" t="s">
+      <c r="P13" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="85"/>
+      <c r="Q13" s="71"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="85" t="s">
+      <c r="S13" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="T13" s="85"/>
+      <c r="T13" s="71"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="57"/>
-      <c r="D14" s="65"/>
+      <c r="D14" s="88"/>
       <c r="E14" s="43" t="s">
         <v>3</v>
       </c>
@@ -2217,7 +2220,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="57"/>
-      <c r="D15" s="66"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="44" t="s">
         <v>2</v>
       </c>
@@ -2263,22 +2266,22 @@
       <c r="B16" s="57">
         <v>2</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="64" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="68"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
       <c r="P16" s="14">
         <v>3</v>
       </c>
@@ -2295,20 +2298,20 @@
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="57"/>
-      <c r="D17" s="59"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="70"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
       <c r="P17" s="14">
         <v>4</v>
       </c>
@@ -2325,20 +2328,20 @@
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="57"/>
-      <c r="D18" s="60"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
       <c r="P18" s="14">
         <v>5</v>
       </c>
@@ -2357,22 +2360,22 @@
       <c r="B19" s="57">
         <v>3</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="64" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="68"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
       <c r="N19" s="7"/>
       <c r="P19" s="14">
         <v>6</v>
@@ -2390,20 +2393,20 @@
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="57"/>
-      <c r="D20" s="59"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="69" t="s">
+      <c r="F20" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="70"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="75"/>
       <c r="P20" s="14">
         <v>7</v>
       </c>
@@ -2420,7 +2423,7 @@
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="57"/>
-      <c r="D21" s="60"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="47" t="s">
         <v>2</v>
       </c>
@@ -2452,22 +2455,22 @@
       <c r="B22" s="57">
         <v>4</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="64" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="73" t="s">
+      <c r="F22" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="74"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="91"/>
       <c r="P22" s="14">
         <v>9</v>
       </c>
@@ -2484,20 +2487,20 @@
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="57"/>
-      <c r="D23" s="59"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="75" t="s">
+      <c r="F23" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="76"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="93"/>
       <c r="P23" s="14">
         <v>10</v>
       </c>
@@ -2514,20 +2517,20 @@
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="57"/>
-      <c r="D24" s="60"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="77" t="s">
+      <c r="F24" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="78"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="95"/>
       <c r="S24" s="17">
         <v>11</v>
       </c>
@@ -2539,7 +2542,7 @@
       <c r="B25" s="57">
         <v>5</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="64" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="45" t="s">
@@ -2548,60 +2551,60 @@
       <c r="F25" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="67" t="s">
+      <c r="G25" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="68"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="73"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="57"/>
-      <c r="D26" s="59"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="46" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="70"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="75"/>
       <c r="U26" s="7"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="57"/>
-      <c r="D27" s="60"/>
+      <c r="D27" s="66"/>
       <c r="E27" s="47" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="71" t="s">
+      <c r="G27" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="72"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="77"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="57">
         <v>6</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="64" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="45" t="s">
@@ -2610,15 +2613,15 @@
       <c r="F28" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="79" t="s">
+      <c r="G28" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="80"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="79"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15" t="s">
         <v>73</v>
@@ -2631,22 +2634,22 @@
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="57"/>
-      <c r="D29" s="59"/>
+      <c r="D29" s="65"/>
       <c r="E29" s="46" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="81" t="s">
+      <c r="G29" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="82"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="81"/>
       <c r="P29" s="15">
         <v>1</v>
       </c>
@@ -2662,22 +2665,22 @@
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="57"/>
-      <c r="D30" s="60"/>
+      <c r="D30" s="66"/>
       <c r="E30" s="47" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="83" t="s">
+      <c r="G30" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="84"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="83"/>
       <c r="P30" s="15">
         <v>2</v>
       </c>
@@ -2695,22 +2698,22 @@
       <c r="B31" s="57">
         <v>7</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="64" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="86" t="s">
+      <c r="F31" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="87"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="68"/>
       <c r="N31" s="11"/>
       <c r="P31" s="15">
         <v>3</v>
@@ -2727,20 +2730,20 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="57"/>
-      <c r="D32" s="59"/>
+      <c r="D32" s="65"/>
       <c r="E32" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="88" t="s">
+      <c r="F32" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="89"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="70"/>
       <c r="P32" s="15">
         <v>4</v>
       </c>
@@ -2756,20 +2759,20 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="57"/>
-      <c r="D33" s="60"/>
+      <c r="D33" s="66"/>
       <c r="E33" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="90" t="s">
+      <c r="F33" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="91"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="59"/>
       <c r="P33" s="15">
         <v>5</v>
       </c>
@@ -2787,22 +2790,22 @@
       <c r="B34" s="57">
         <v>8</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="64" t="s">
         <v>101</v>
       </c>
       <c r="E34" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="86" t="s">
+      <c r="F34" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="87"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="68"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
       <c r="S34" s="15"/>
@@ -2810,20 +2813,20 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="57"/>
-      <c r="D35" s="59"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="88" t="s">
+      <c r="F35" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="89"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="70"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
       <c r="S35" s="15"/>
@@ -2831,20 +2834,20 @@
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="57"/>
-      <c r="D36" s="60"/>
+      <c r="D36" s="66"/>
       <c r="E36" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="90" t="s">
+      <c r="F36" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="91"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="59"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
       <c r="S36" s="15"/>
@@ -2854,7 +2857,7 @@
       <c r="B37" s="57">
         <v>9</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="64" t="s">
         <v>58</v>
       </c>
       <c r="E37" s="45" t="s">
@@ -2894,7 +2897,7 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="57"/>
-      <c r="D38" s="59"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="46" t="s">
         <v>3</v>
       </c>
@@ -2931,7 +2934,7 @@
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="57"/>
-      <c r="D39" s="60"/>
+      <c r="D39" s="66"/>
       <c r="E39" s="47" t="s">
         <v>2</v>
       </c>
@@ -2971,22 +2974,22 @@
       <c r="B40" s="57">
         <v>10</v>
       </c>
-      <c r="D40" s="58" t="s">
+      <c r="D40" s="64" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="86" t="s">
+      <c r="F40" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="87"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="68"/>
       <c r="S40" s="15">
         <v>9</v>
       </c>
@@ -2996,98 +2999,98 @@
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="57"/>
-      <c r="D41" s="59"/>
+      <c r="D41" s="65"/>
       <c r="E41" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="88" t="s">
+      <c r="F41" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="89"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="70"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="57"/>
-      <c r="D42" s="60"/>
+      <c r="D42" s="66"/>
       <c r="E42" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="90" t="s">
+      <c r="F42" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="91"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="59"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="57">
         <v>11</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="D43" s="64" t="s">
         <v>102</v>
       </c>
       <c r="E43" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="86" t="s">
+      <c r="F43" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="87"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="68"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="57"/>
-      <c r="D44" s="59"/>
+      <c r="D44" s="65"/>
       <c r="E44" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="88" t="s">
+      <c r="F44" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="89"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="70"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="57"/>
-      <c r="D45" s="60"/>
+      <c r="D45" s="66"/>
       <c r="E45" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="90" t="s">
+      <c r="F45" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="91"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="59"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="57">
         <v>12</v>
       </c>
-      <c r="D46" s="93" t="s">
+      <c r="D46" s="61" t="s">
         <v>59</v>
       </c>
       <c r="E46" s="45" t="s">
@@ -3120,7 +3123,7 @@
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="57"/>
-      <c r="D47" s="94"/>
+      <c r="D47" s="62"/>
       <c r="E47" s="46"/>
       <c r="F47" s="21" t="s">
         <v>25</v>
@@ -3149,7 +3152,7 @@
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="57"/>
-      <c r="D48" s="95"/>
+      <c r="D48" s="63"/>
       <c r="E48" s="47"/>
       <c r="F48" s="28" t="s">
         <v>33</v>
@@ -3177,31 +3180,48 @@
       </c>
     </row>
     <row r="50" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H50" s="92" t="s">
+      <c r="H50" s="60" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H51" s="92"/>
+      <c r="H51" s="60"/>
       <c r="J51" s="7"/>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="F42:M42"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="F43:M43"/>
-    <mergeCell ref="F44:M44"/>
-    <mergeCell ref="F45:M45"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:D24"/>
     <mergeCell ref="G28:M28"/>
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="D31:D33"/>
@@ -3218,33 +3238,21 @@
     <mergeCell ref="F34:M34"/>
     <mergeCell ref="F35:M35"/>
     <mergeCell ref="F36:M36"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="F42:M42"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="F43:M43"/>
+    <mergeCell ref="F44:M44"/>
+    <mergeCell ref="F45:M45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
